--- a/Table/table_final_to_excel.xlsx
+++ b/Table/table_final_to_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\mixed_forest_biomass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\mixed_forest_biomass\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1B37EAB0-7F9F-4E9B-A0D6-0609F7E5C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8121FC5-3C93-4DC9-931D-FB1E07957208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9900A7B-EF56-4405-A46F-E71FB364EDF2}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>Lithraea molleoides</t>
   </si>
   <si>
-    <t>Schinus terebenthifolius</t>
-  </si>
-  <si>
     <t>Tapirira guianensis</t>
   </si>
   <si>
@@ -1274,6 +1271,9 @@
   </si>
   <si>
     <t>Eugenia sp.4</t>
+  </si>
+  <si>
+    <t>Schinus terebinthifolius</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1808,28 +1808,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1837,6 +1822,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2216,9 +2216,9 @@
   <dimension ref="A1:O406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,70 +2230,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2316,8 +2316,8 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>80</v>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -2340,7 +2340,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2364,8 +2364,8 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>77</v>
+      <c r="B6" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -2388,8 +2388,8 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>78</v>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -2415,7 +2415,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2430,8 +2430,8 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>79</v>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -2454,8 +2454,8 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>81</v>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -2478,8 +2478,8 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>82</v>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -2506,8 +2506,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>83</v>
+      <c r="B12" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -2530,8 +2530,8 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>84</v>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -2558,8 +2558,8 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>85</v>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -2590,8 +2590,8 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>86</v>
+      <c r="B15" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -2614,8 +2614,8 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>87</v>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2638,8 +2638,8 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>88</v>
+      <c r="B17" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -2662,8 +2662,8 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>89</v>
+      <c r="B18" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -2686,8 +2686,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>90</v>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -2710,8 +2710,8 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>91</v>
+      <c r="B20" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -2737,7 +2737,7 @@
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2752,8 +2752,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>92</v>
+      <c r="B22" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -2776,8 +2776,8 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>93</v>
+      <c r="B23" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -2800,8 +2800,8 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>94</v>
+      <c r="B24" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -2828,8 +2828,8 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>95</v>
+      <c r="B25" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
@@ -2855,7 +2855,7 @@
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2870,8 +2870,8 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>96</v>
+      <c r="B27" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2894,8 +2894,8 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>97</v>
+      <c r="B28" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -2918,8 +2918,8 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>98</v>
+      <c r="B29" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2942,8 +2942,8 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>99</v>
+      <c r="B30" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -2966,8 +2966,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>100</v>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -2994,8 +2994,8 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>101</v>
+      <c r="B32" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3022,8 +3022,8 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>102</v>
+      <c r="B33" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -3054,8 +3054,8 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>103</v>
+      <c r="B34" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -3078,8 +3078,8 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>104</v>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -3114,8 +3114,8 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>105</v>
+      <c r="B36" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -3153,7 +3153,7 @@
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="5"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3168,8 +3168,8 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>106</v>
+      <c r="B38" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
@@ -3192,8 +3192,8 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>107</v>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
@@ -3216,8 +3216,8 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>108</v>
+      <c r="B40" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -3247,7 +3247,7 @@
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3262,8 +3262,8 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>109</v>
+      <c r="B42" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -3309,7 +3309,7 @@
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3324,8 +3324,8 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>110</v>
+      <c r="B44" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
@@ -3348,8 +3348,8 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>111</v>
+      <c r="B45" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -3379,7 +3379,7 @@
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3394,8 +3394,8 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>112</v>
+      <c r="B47" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
@@ -3425,7 +3425,7 @@
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3440,8 +3440,8 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>113</v>
+      <c r="B49" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
@@ -3464,8 +3464,8 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>114</v>
+      <c r="B50" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
@@ -3492,8 +3492,8 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>115</v>
+      <c r="B51" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -3516,8 +3516,8 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>116</v>
+      <c r="B52" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -3540,8 +3540,8 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>117</v>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -3572,8 +3572,8 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>118</v>
+      <c r="B54" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
@@ -3596,8 +3596,8 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>119</v>
+      <c r="B55" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
@@ -3620,8 +3620,8 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>120</v>
+      <c r="B56" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
@@ -3660,8 +3660,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>121</v>
+      <c r="B57" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
@@ -3684,8 +3684,8 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>122</v>
+      <c r="B58" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
@@ -3708,8 +3708,8 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
-        <v>123</v>
+      <c r="B59" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -3732,8 +3732,8 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>124</v>
+      <c r="B60" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
@@ -3759,7 +3759,7 @@
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="5"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3774,8 +3774,8 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>125</v>
+      <c r="B62" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1</v>
@@ -3798,8 +3798,8 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>126</v>
+      <c r="B63" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>127</v>
+      <c r="B64" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -3846,8 +3846,8 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>128</v>
+      <c r="B65" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -3878,8 +3878,8 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>413</v>
+      <c r="B66" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -3902,8 +3902,8 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>129</v>
+      <c r="B67" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -3929,7 +3929,7 @@
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="5"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3944,8 +3944,8 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>130</v>
+      <c r="B69" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
@@ -3968,8 +3968,8 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>131</v>
+      <c r="B70" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>1</v>
@@ -3995,7 +3995,7 @@
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="5"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4010,8 +4010,8 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>132</v>
+      <c r="B72" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
@@ -4037,7 +4037,7 @@
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="5"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4052,8 +4052,8 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>133</v>
+      <c r="B74" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
@@ -4079,7 +4079,7 @@
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="10"/>
+      <c r="B75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4094,8 +4094,8 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>134</v>
+      <c r="B76" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1</v>
@@ -4129,7 +4129,7 @@
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="5"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4144,8 +4144,8 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>135</v>
+      <c r="B78" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>1</v>
@@ -4171,7 +4171,7 @@
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="5"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4186,8 +4186,8 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
-        <v>136</v>
+      <c r="B80" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1</v>
@@ -4214,8 +4214,8 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
-        <v>137</v>
+      <c r="B81" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
@@ -4246,8 +4246,8 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>138</v>
+      <c r="B82" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1</v>
@@ -4270,8 +4270,8 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
-        <v>139</v>
+      <c r="B83" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
@@ -4297,7 +4297,7 @@
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="10"/>
+      <c r="B84" s="5"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4312,8 +4312,8 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
-        <v>140</v>
+      <c r="B85" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -4339,7 +4339,7 @@
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="10"/>
+      <c r="B86" s="5"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4354,8 +4354,8 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
-        <v>141</v>
+      <c r="B87" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
@@ -4397,7 +4397,7 @@
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="5"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4412,8 +4412,8 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
-        <v>142</v>
+      <c r="B89" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
@@ -4439,7 +4439,7 @@
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="5"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4454,8 +4454,8 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
-        <v>143</v>
+      <c r="B91" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -4481,7 +4481,7 @@
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="10"/>
+      <c r="B92" s="5"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4496,8 +4496,8 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
-        <v>144</v>
+      <c r="B93" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
@@ -4527,7 +4527,7 @@
       <c r="A94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="10"/>
+      <c r="B94" s="5"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4542,8 +4542,8 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
-        <v>145</v>
+      <c r="B95" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1</v>
@@ -4569,7 +4569,7 @@
       <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B96" s="10"/>
+      <c r="B96" s="5"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4584,8 +4584,8 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>414</v>
+      <c r="B97" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
@@ -4608,8 +4608,8 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>146</v>
+      <c r="B98" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
@@ -4635,7 +4635,7 @@
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="5"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4650,8 +4650,8 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>147</v>
+      <c r="B100" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1</v>
@@ -4674,8 +4674,8 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>148</v>
+      <c r="B101" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
@@ -4702,8 +4702,8 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>149</v>
+      <c r="B102" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1</v>
@@ -4730,8 +4730,8 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
-        <v>150</v>
+      <c r="B103" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
@@ -4754,8 +4754,8 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
-        <v>151</v>
+      <c r="B104" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
@@ -4778,8 +4778,8 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="10" t="s">
-        <v>152</v>
+      <c r="B105" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
@@ -4802,8 +4802,8 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>153</v>
+      <c r="B106" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
@@ -4830,8 +4830,8 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>154</v>
+      <c r="B107" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -4854,8 +4854,8 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>155</v>
+      <c r="B108" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>1</v>
@@ -4882,8 +4882,8 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
-        <v>156</v>
+      <c r="B109" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1</v>
@@ -4909,7 +4909,7 @@
       <c r="A110" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="10"/>
+      <c r="B110" s="5"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4924,8 +4924,8 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
-        <v>157</v>
+      <c r="B111" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1</v>
@@ -4948,8 +4948,8 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>158</v>
+      <c r="B112" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1</v>
@@ -4972,8 +4972,8 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
-        <v>159</v>
+      <c r="B113" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
@@ -5000,8 +5000,8 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
-        <v>160</v>
+      <c r="B114" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1</v>
@@ -5028,8 +5028,8 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
-        <v>161</v>
+      <c r="B115" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
@@ -5052,8 +5052,8 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
-        <v>162</v>
+      <c r="B116" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1</v>
@@ -5080,8 +5080,8 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="10" t="s">
-        <v>163</v>
+      <c r="B117" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -5104,8 +5104,8 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
-        <v>164</v>
+      <c r="B118" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1</v>
@@ -5128,8 +5128,8 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
-        <v>165</v>
+      <c r="B119" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1</v>
@@ -5152,8 +5152,8 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>166</v>
+      <c r="B120" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1</v>
@@ -5180,8 +5180,8 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
-        <v>167</v>
+      <c r="B121" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1</v>
@@ -5204,8 +5204,8 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
-        <v>168</v>
+      <c r="B122" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>1</v>
@@ -5228,8 +5228,8 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
-        <v>169</v>
+      <c r="B123" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>1</v>
@@ -5252,8 +5252,8 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>170</v>
+      <c r="B124" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1</v>
@@ -5276,8 +5276,8 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B125" s="10" t="s">
-        <v>171</v>
+      <c r="B125" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1</v>
@@ -5300,8 +5300,8 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>172</v>
+      <c r="B126" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1</v>
@@ -5324,8 +5324,8 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B127" s="10" t="s">
-        <v>173</v>
+      <c r="B127" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1</v>
@@ -5348,8 +5348,8 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
-        <v>174</v>
+      <c r="B128" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>1</v>
@@ -5372,8 +5372,8 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B129" s="10" t="s">
-        <v>175</v>
+      <c r="B129" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1</v>
@@ -5396,8 +5396,8 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
-        <v>176</v>
+      <c r="B130" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1</v>
@@ -5420,8 +5420,8 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B131" s="10" t="s">
-        <v>177</v>
+      <c r="B131" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -5448,8 +5448,8 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B132" s="10" t="s">
-        <v>178</v>
+      <c r="B132" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1</v>
@@ -5472,8 +5472,8 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B133" s="10" t="s">
-        <v>179</v>
+      <c r="B133" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1</v>
@@ -5500,8 +5500,8 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>180</v>
+      <c r="B134" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>1</v>
@@ -5524,8 +5524,8 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B135" s="10" t="s">
-        <v>181</v>
+      <c r="B135" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1</v>
@@ -5552,8 +5552,8 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>182</v>
+      <c r="B136" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1</v>
@@ -5576,8 +5576,8 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B137" s="10" t="s">
-        <v>183</v>
+      <c r="B137" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1</v>
@@ -5600,8 +5600,8 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>184</v>
+      <c r="B138" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1</v>
@@ -5624,8 +5624,8 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B139" s="10" t="s">
-        <v>185</v>
+      <c r="B139" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1</v>
@@ -5648,8 +5648,8 @@
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
-        <v>186</v>
+      <c r="B140" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1</v>
@@ -5672,8 +5672,8 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B141" s="10" t="s">
-        <v>187</v>
+      <c r="B141" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1</v>
@@ -5696,8 +5696,8 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
-        <v>188</v>
+      <c r="B142" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1</v>
@@ -5724,8 +5724,8 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B143" s="10" t="s">
-        <v>189</v>
+      <c r="B143" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1</v>
@@ -5748,8 +5748,8 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
-        <v>190</v>
+      <c r="B144" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1</v>
@@ -5772,8 +5772,8 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B145" s="10" t="s">
-        <v>191</v>
+      <c r="B145" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1</v>
@@ -5796,8 +5796,8 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
-        <v>192</v>
+      <c r="B146" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1</v>
@@ -5820,8 +5820,8 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B147" s="10" t="s">
-        <v>193</v>
+      <c r="B147" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1</v>
@@ -5847,7 +5847,7 @@
       <c r="A148" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B148" s="10"/>
+      <c r="B148" s="5"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -5862,8 +5862,8 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B149" s="10" t="s">
-        <v>194</v>
+      <c r="B149" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1</v>
@@ -5886,8 +5886,8 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="10" t="s">
-        <v>195</v>
+      <c r="B150" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1</v>
@@ -5913,7 +5913,7 @@
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B151" s="10"/>
+      <c r="B151" s="5"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -5928,8 +5928,8 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
-        <v>196</v>
+      <c r="B152" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>1</v>
@@ -5952,8 +5952,8 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B153" s="10" t="s">
-        <v>197</v>
+      <c r="B153" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1</v>
@@ -5980,8 +5980,8 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="10" t="s">
-        <v>198</v>
+      <c r="B154" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>1</v>
@@ -6004,8 +6004,8 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
-        <v>199</v>
+      <c r="B155" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1</v>
@@ -6028,8 +6028,8 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B156" s="10" t="s">
-        <v>200</v>
+      <c r="B156" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1</v>
@@ -6060,8 +6060,8 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
-        <v>201</v>
+      <c r="B157" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1</v>
@@ -6084,8 +6084,8 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B158" s="10" t="s">
-        <v>202</v>
+      <c r="B158" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>1</v>
@@ -6108,8 +6108,8 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
-        <v>203</v>
+      <c r="B159" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1</v>
@@ -6132,8 +6132,8 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B160" s="10" t="s">
-        <v>204</v>
+      <c r="B160" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>1</v>
@@ -6156,8 +6156,8 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>205</v>
+      <c r="B161" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1</v>
@@ -6184,8 +6184,8 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B162" s="10" t="s">
-        <v>206</v>
+      <c r="B162" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>1</v>
@@ -6224,8 +6224,8 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
-        <v>207</v>
+      <c r="B163" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1</v>
@@ -6248,8 +6248,8 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B164" s="10" t="s">
-        <v>208</v>
+      <c r="B164" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>1</v>
@@ -6276,8 +6276,8 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B165" s="10" t="s">
-        <v>209</v>
+      <c r="B165" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1</v>
@@ -6304,8 +6304,8 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B166" s="10" t="s">
-        <v>210</v>
+      <c r="B166" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>1</v>
@@ -6332,8 +6332,8 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B167" s="10" t="s">
-        <v>211</v>
+      <c r="B167" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1</v>
@@ -6360,8 +6360,8 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B168" s="10" t="s">
-        <v>212</v>
+      <c r="B168" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>1</v>
@@ -6392,8 +6392,8 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
-        <v>213</v>
+      <c r="B169" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1</v>
@@ -6420,8 +6420,8 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B170" s="10" t="s">
-        <v>214</v>
+      <c r="B170" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1</v>
@@ -6444,8 +6444,8 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
-        <v>215</v>
+      <c r="B171" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1</v>
@@ -6472,8 +6472,8 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
-        <v>216</v>
+      <c r="B172" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1</v>
@@ -6496,8 +6496,8 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
-        <v>217</v>
+      <c r="B173" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1</v>
@@ -6528,8 +6528,8 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B174" s="10" t="s">
-        <v>218</v>
+      <c r="B174" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1</v>
@@ -6568,8 +6568,8 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B175" s="10" t="s">
-        <v>219</v>
+      <c r="B175" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1</v>
@@ -6596,8 +6596,8 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
-        <v>220</v>
+      <c r="B176" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1</v>
@@ -6620,8 +6620,8 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B177" s="10" t="s">
-        <v>221</v>
+      <c r="B177" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1</v>
@@ -6644,8 +6644,8 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B178" s="10" t="s">
-        <v>222</v>
+      <c r="B178" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>1</v>
@@ -6668,8 +6668,8 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B179" s="10" t="s">
-        <v>223</v>
+      <c r="B179" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
@@ -6692,8 +6692,8 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
-        <v>224</v>
+      <c r="B180" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>1</v>
@@ -6716,8 +6716,8 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B181" s="10" t="s">
-        <v>225</v>
+      <c r="B181" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1</v>
@@ -6751,7 +6751,7 @@
       <c r="A182" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B182" s="10"/>
+      <c r="B182" s="5"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -6766,8 +6766,8 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B183" s="10" t="s">
-        <v>226</v>
+      <c r="B183" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>1</v>
@@ -6793,7 +6793,7 @@
       <c r="A184" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B184" s="10"/>
+      <c r="B184" s="5"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -6808,8 +6808,8 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B185" s="10" t="s">
-        <v>227</v>
+      <c r="B185" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1</v>
@@ -6835,7 +6835,7 @@
       <c r="A186" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B186" s="10"/>
+      <c r="B186" s="5"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -6850,8 +6850,8 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B187" s="10" t="s">
-        <v>228</v>
+      <c r="B187" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>1</v>
@@ -6877,7 +6877,7 @@
       <c r="A188" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B188" s="10"/>
+      <c r="B188" s="5"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -6892,8 +6892,8 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B189" s="10" t="s">
-        <v>229</v>
+      <c r="B189" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1</v>
@@ -6916,8 +6916,8 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B190" s="10" t="s">
-        <v>230</v>
+      <c r="B190" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>1</v>
@@ -6944,8 +6944,8 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>231</v>
+      <c r="B191" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>1</v>
@@ -6972,8 +6972,8 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B192" s="10" t="s">
-        <v>232</v>
+      <c r="B192" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>1</v>
@@ -6999,7 +6999,7 @@
       <c r="A193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B193" s="10"/>
+      <c r="B193" s="5"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -7014,8 +7014,8 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B194" s="10" t="s">
-        <v>233</v>
+      <c r="B194" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>1</v>
@@ -7038,8 +7038,8 @@
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
-        <v>234</v>
+      <c r="B195" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>1</v>
@@ -7066,8 +7066,8 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B196" s="10" t="s">
-        <v>235</v>
+      <c r="B196" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>1</v>
@@ -7090,8 +7090,8 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B197" s="10" t="s">
-        <v>236</v>
+      <c r="B197" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1</v>
@@ -7114,8 +7114,8 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B198" s="10" t="s">
-        <v>237</v>
+      <c r="B198" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>1</v>
@@ -7138,8 +7138,8 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B199" s="10" t="s">
-        <v>238</v>
+      <c r="B199" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>1</v>
@@ -7162,8 +7162,8 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
-        <v>239</v>
+      <c r="B200" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>1</v>
@@ -7186,8 +7186,8 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B201" s="10" t="s">
-        <v>240</v>
+      <c r="B201" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>1</v>
@@ -7210,8 +7210,8 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B202" s="10" t="s">
-        <v>241</v>
+      <c r="B202" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>1</v>
@@ -7234,8 +7234,8 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B203" s="10" t="s">
-        <v>242</v>
+      <c r="B203" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>1</v>
@@ -7261,7 +7261,7 @@
       <c r="A204" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B204" s="10"/>
+      <c r="B204" s="5"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -7276,8 +7276,8 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B205" s="10" t="s">
-        <v>243</v>
+      <c r="B205" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>1</v>
@@ -7308,8 +7308,8 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B206" s="10" t="s">
-        <v>244</v>
+      <c r="B206" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>1</v>
@@ -7344,8 +7344,8 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
-        <v>245</v>
+      <c r="B207" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>1</v>
@@ -7368,8 +7368,8 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B208" s="10" t="s">
-        <v>246</v>
+      <c r="B208" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1</v>
@@ -7392,8 +7392,8 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
-        <v>247</v>
+      <c r="B209" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1</v>
@@ -7416,8 +7416,8 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B210" s="10" t="s">
-        <v>248</v>
+      <c r="B210" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1</v>
@@ -7444,8 +7444,8 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
-        <v>249</v>
+      <c r="B211" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1</v>
@@ -7471,7 +7471,7 @@
       <c r="A212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B212" s="10"/>
+      <c r="B212" s="5"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -7486,8 +7486,8 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B213" s="10" t="s">
-        <v>250</v>
+      <c r="B213" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>1</v>
@@ -7514,8 +7514,8 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B214" s="10" t="s">
-        <v>251</v>
+      <c r="B214" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>1</v>
@@ -7538,8 +7538,8 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B215" s="10" t="s">
-        <v>252</v>
+      <c r="B215" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1</v>
@@ -7565,7 +7565,7 @@
       <c r="A216" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B216" s="10"/>
+      <c r="B216" s="5"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -7580,8 +7580,8 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
-        <v>253</v>
+      <c r="B217" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>1</v>
@@ -7604,8 +7604,8 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B218" s="10" t="s">
-        <v>254</v>
+      <c r="B218" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1</v>
@@ -7628,8 +7628,8 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B219" s="10" t="s">
-        <v>255</v>
+      <c r="B219" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>1</v>
@@ -7663,7 +7663,7 @@
       <c r="A220" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B220" s="10"/>
+      <c r="B220" s="5"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -7678,8 +7678,8 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B221" s="10" t="s">
-        <v>256</v>
+      <c r="B221" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>1</v>
@@ -7702,8 +7702,8 @@
       <c r="O221" s="1"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B222" s="10" t="s">
-        <v>257</v>
+      <c r="B222" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>1</v>
@@ -7726,8 +7726,8 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B223" s="10" t="s">
-        <v>258</v>
+      <c r="B223" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>1</v>
@@ -7750,8 +7750,8 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B224" s="10" t="s">
-        <v>259</v>
+      <c r="B224" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>1</v>
@@ -7774,8 +7774,8 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B225" s="10" t="s">
-        <v>260</v>
+      <c r="B225" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>1</v>
@@ -7798,8 +7798,8 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B226" s="10" t="s">
-        <v>261</v>
+      <c r="B226" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>1</v>
@@ -7826,8 +7826,8 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B227" s="10" t="s">
-        <v>262</v>
+      <c r="B227" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>1</v>
@@ -7850,8 +7850,8 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B228" s="10" t="s">
-        <v>263</v>
+      <c r="B228" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>1</v>
@@ -7878,8 +7878,8 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B229" s="10" t="s">
-        <v>264</v>
+      <c r="B229" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>1</v>
@@ -7902,8 +7902,8 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B230" s="10" t="s">
-        <v>265</v>
+      <c r="B230" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>1</v>
@@ -7926,8 +7926,8 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B231" s="10" t="s">
-        <v>266</v>
+      <c r="B231" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>1</v>
@@ -7954,8 +7954,8 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B232" s="10" t="s">
-        <v>267</v>
+      <c r="B232" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>1</v>
@@ -7978,8 +7978,8 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B233" s="10" t="s">
-        <v>268</v>
+      <c r="B233" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>1</v>
@@ -8002,8 +8002,8 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B234" s="10" t="s">
-        <v>269</v>
+      <c r="B234" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>1</v>
@@ -8026,8 +8026,8 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B235" s="10" t="s">
-        <v>270</v>
+      <c r="B235" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>1</v>
@@ -8062,8 +8062,8 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B236" s="10" t="s">
-        <v>271</v>
+      <c r="B236" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>1</v>
@@ -8086,8 +8086,8 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B237" s="10" t="s">
-        <v>272</v>
+      <c r="B237" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>1</v>
@@ -8110,8 +8110,8 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B238" s="10" t="s">
-        <v>273</v>
+      <c r="B238" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>1</v>
@@ -8134,8 +8134,8 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B239" s="10" t="s">
-        <v>274</v>
+      <c r="B239" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>1</v>
@@ -8162,8 +8162,8 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B240" s="10" t="s">
-        <v>275</v>
+      <c r="B240" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>1</v>
@@ -8186,8 +8186,8 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B241" s="10" t="s">
-        <v>276</v>
+      <c r="B241" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>1</v>
@@ -8210,8 +8210,8 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B242" s="10" t="s">
-        <v>415</v>
+      <c r="B242" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>1</v>
@@ -8234,8 +8234,8 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B243" s="10" t="s">
-        <v>416</v>
+      <c r="B243" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>1</v>
@@ -8258,8 +8258,8 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B244" s="10" t="s">
-        <v>277</v>
+      <c r="B244" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>1</v>
@@ -8282,8 +8282,8 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B245" s="10" t="s">
-        <v>278</v>
+      <c r="B245" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>1</v>
@@ -8306,8 +8306,8 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B246" s="10" t="s">
-        <v>279</v>
+      <c r="B246" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>1</v>
@@ -8330,8 +8330,8 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B247" s="10" t="s">
-        <v>280</v>
+      <c r="B247" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>1</v>
@@ -8354,8 +8354,8 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B248" s="10" t="s">
-        <v>281</v>
+      <c r="B248" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>1</v>
@@ -8378,8 +8378,8 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B249" s="10" t="s">
-        <v>282</v>
+      <c r="B249" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>1</v>
@@ -8402,8 +8402,8 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B250" s="10" t="s">
-        <v>283</v>
+      <c r="B250" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>5</v>
@@ -8426,8 +8426,8 @@
       </c>
     </row>
     <row r="251" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B251" s="10" t="s">
-        <v>284</v>
+      <c r="B251" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>5</v>
@@ -8454,8 +8454,8 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B252" s="10" t="s">
-        <v>285</v>
+      <c r="B252" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>5</v>
@@ -8478,8 +8478,8 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B253" s="10" t="s">
-        <v>286</v>
+      <c r="B253" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>5</v>
@@ -8510,8 +8510,8 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B254" s="10" t="s">
-        <v>287</v>
+      <c r="B254" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>5</v>
@@ -8534,8 +8534,8 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B255" s="10" t="s">
-        <v>288</v>
+      <c r="B255" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>5</v>
@@ -8558,8 +8558,8 @@
       </c>
     </row>
     <row r="256" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B256" s="10" t="s">
-        <v>289</v>
+      <c r="B256" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>5</v>
@@ -8590,8 +8590,8 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B257" s="10" t="s">
-        <v>290</v>
+      <c r="B257" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>5</v>
@@ -8614,8 +8614,8 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B258" s="10" t="s">
-        <v>291</v>
+      <c r="B258" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>5</v>
@@ -8638,8 +8638,8 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B259" s="10" t="s">
-        <v>292</v>
+      <c r="B259" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>1</v>
@@ -8662,8 +8662,8 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B260" s="10" t="s">
-        <v>293</v>
+      <c r="B260" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>1</v>
@@ -8686,8 +8686,8 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B261" s="10" t="s">
-        <v>294</v>
+      <c r="B261" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>1</v>
@@ -8714,8 +8714,8 @@
       </c>
     </row>
     <row r="262" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B262" s="10" t="s">
-        <v>295</v>
+      <c r="B262" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>1</v>
@@ -8746,8 +8746,8 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B263" s="10" t="s">
-        <v>296</v>
+      <c r="B263" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>1</v>
@@ -8782,8 +8782,8 @@
       </c>
     </row>
     <row r="264" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B264" s="10" t="s">
-        <v>297</v>
+      <c r="B264" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>1</v>
@@ -8814,8 +8814,8 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B265" s="10" t="s">
-        <v>298</v>
+      <c r="B265" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>1</v>
@@ -8846,8 +8846,8 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B266" s="10" t="s">
-        <v>299</v>
+      <c r="B266" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>1</v>
@@ -8874,8 +8874,8 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B267" s="10" t="s">
-        <v>300</v>
+      <c r="B267" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>1</v>
@@ -8902,8 +8902,8 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B268" s="10" t="s">
-        <v>301</v>
+      <c r="B268" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>1</v>
@@ -8934,8 +8934,8 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B269" s="10" t="s">
-        <v>302</v>
+      <c r="B269" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1</v>
@@ -8958,8 +8958,8 @@
       </c>
     </row>
     <row r="270" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B270" s="10" t="s">
-        <v>303</v>
+      <c r="B270" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>1</v>
@@ -8982,8 +8982,8 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B271" s="10" t="s">
-        <v>304</v>
+      <c r="B271" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>1</v>
@@ -9006,8 +9006,8 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B272" s="10" t="s">
-        <v>305</v>
+      <c r="B272" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>1</v>
@@ -9034,8 +9034,8 @@
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B273" s="10" t="s">
-        <v>306</v>
+      <c r="B273" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>1</v>
@@ -9058,8 +9058,8 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B274" s="10" t="s">
-        <v>307</v>
+      <c r="B274" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>1</v>
@@ -9082,8 +9082,8 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B275" s="10" t="s">
-        <v>308</v>
+      <c r="B275" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>1</v>
@@ -9106,8 +9106,8 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B276" s="10" t="s">
-        <v>309</v>
+      <c r="B276" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>1</v>
@@ -9130,8 +9130,8 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B277" s="10" t="s">
-        <v>310</v>
+      <c r="B277" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>1</v>
@@ -9158,8 +9158,8 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B278" s="10" t="s">
-        <v>311</v>
+      <c r="B278" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>1</v>
@@ -9182,8 +9182,8 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B279" s="10" t="s">
-        <v>312</v>
+      <c r="B279" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>1</v>
@@ -9206,8 +9206,8 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B280" s="10" t="s">
-        <v>313</v>
+      <c r="B280" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>1</v>
@@ -9230,8 +9230,8 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B281" s="10" t="s">
-        <v>314</v>
+      <c r="B281" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>1</v>
@@ -9254,8 +9254,8 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B282" s="10" t="s">
-        <v>315</v>
+      <c r="B282" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>1</v>
@@ -9278,8 +9278,8 @@
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B283" s="10" t="s">
-        <v>316</v>
+      <c r="B283" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>1</v>
@@ -9302,8 +9302,8 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B284" s="10" t="s">
-        <v>317</v>
+      <c r="B284" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>1</v>
@@ -9337,7 +9337,7 @@
       <c r="A285" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B285" s="10"/>
+      <c r="B285" s="5"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -9352,8 +9352,8 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B286" s="10" t="s">
-        <v>318</v>
+      <c r="B286" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>1</v>
@@ -9387,7 +9387,7 @@
       <c r="A287" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B287" s="10"/>
+      <c r="B287" s="5"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -9402,8 +9402,8 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B288" s="10" t="s">
-        <v>319</v>
+      <c r="B288" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>1</v>
@@ -9426,8 +9426,8 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B289" s="10" t="s">
-        <v>320</v>
+      <c r="B289" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>1</v>
@@ -9453,7 +9453,7 @@
       <c r="A290" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B290" s="10"/>
+      <c r="B290" s="5"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -9468,8 +9468,8 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B291" s="10" t="s">
-        <v>321</v>
+      <c r="B291" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>1</v>
@@ -9495,7 +9495,7 @@
       <c r="A292" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B292" s="10"/>
+      <c r="B292" s="5"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -9510,8 +9510,8 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B293" s="10" t="s">
-        <v>322</v>
+      <c r="B293" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>1</v>
@@ -9537,7 +9537,7 @@
       <c r="A294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B294" s="10"/>
+      <c r="B294" s="5"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -9552,8 +9552,8 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B295" s="10" t="s">
-        <v>323</v>
+      <c r="B295" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>1</v>
@@ -9579,7 +9579,7 @@
       <c r="A296" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B296" s="10"/>
+      <c r="B296" s="5"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -9594,8 +9594,8 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B297" s="10" t="s">
-        <v>324</v>
+      <c r="B297" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>1</v>
@@ -9621,7 +9621,7 @@
       <c r="A298" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B298" s="10"/>
+      <c r="B298" s="5"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -9636,8 +9636,8 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B299" s="10" t="s">
-        <v>325</v>
+      <c r="B299" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>1</v>
@@ -9660,8 +9660,8 @@
       <c r="O299" s="1"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B300" s="10" t="s">
-        <v>326</v>
+      <c r="B300" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>1</v>
@@ -9688,8 +9688,8 @@
       <c r="O300" s="1"/>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B301" s="10" t="s">
-        <v>327</v>
+      <c r="B301" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>1</v>
@@ -9712,8 +9712,8 @@
       <c r="O301" s="1"/>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B302" s="10" t="s">
-        <v>328</v>
+      <c r="B302" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>1</v>
@@ -9736,8 +9736,8 @@
       <c r="O302" s="1"/>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B303" s="10" t="s">
-        <v>329</v>
+      <c r="B303" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>1</v>
@@ -9763,7 +9763,7 @@
       <c r="A304" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B304" s="10"/>
+      <c r="B304" s="5"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -9778,8 +9778,8 @@
       <c r="O304" s="1"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B305" s="10" t="s">
-        <v>330</v>
+      <c r="B305" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>5</v>
@@ -9817,7 +9817,7 @@
       <c r="A306" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B306" s="10"/>
+      <c r="B306" s="5"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -9832,8 +9832,8 @@
       <c r="O306" s="1"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B307" s="10" t="s">
-        <v>331</v>
+      <c r="B307" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1</v>
@@ -9859,7 +9859,7 @@
       <c r="A308" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B308" s="10"/>
+      <c r="B308" s="5"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -9874,8 +9874,8 @@
       <c r="O308" s="1"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B309" s="10" t="s">
-        <v>332</v>
+      <c r="B309" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>1</v>
@@ -9902,8 +9902,8 @@
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B310" s="10" t="s">
-        <v>333</v>
+      <c r="B310" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>1</v>
@@ -9926,8 +9926,8 @@
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B311" s="10" t="s">
-        <v>334</v>
+      <c r="B311" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>1</v>
@@ -9950,8 +9950,8 @@
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B312" s="10" t="s">
-        <v>335</v>
+      <c r="B312" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>1</v>
@@ -9990,8 +9990,8 @@
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B313" s="10" t="s">
-        <v>336</v>
+      <c r="B313" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>1</v>
@@ -10014,8 +10014,8 @@
       <c r="O313" s="1"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B314" s="10" t="s">
-        <v>337</v>
+      <c r="B314" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>1</v>
@@ -10045,7 +10045,7 @@
       <c r="A315" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B315" s="10"/>
+      <c r="B315" s="5"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -10060,8 +10060,8 @@
       <c r="O315" s="1"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B316" s="10" t="s">
-        <v>338</v>
+      <c r="B316" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>1</v>
@@ -10084,8 +10084,8 @@
       <c r="O316" s="1"/>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B317" s="10" t="s">
-        <v>339</v>
+      <c r="B317" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>1</v>
@@ -10119,7 +10119,7 @@
       <c r="A318" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B318" s="10"/>
+      <c r="B318" s="5"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -10134,8 +10134,8 @@
       <c r="O318" s="1"/>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B319" s="10" t="s">
-        <v>340</v>
+      <c r="B319" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>1</v>
@@ -10158,8 +10158,8 @@
       <c r="O319" s="1"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B320" s="10" t="s">
-        <v>341</v>
+      <c r="B320" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>1</v>
@@ -10182,8 +10182,8 @@
       <c r="O320" s="1"/>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B321" s="10" t="s">
-        <v>342</v>
+      <c r="B321" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>5</v>
@@ -10221,7 +10221,7 @@
       <c r="A322" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B322" s="10"/>
+      <c r="B322" s="5"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -10236,8 +10236,8 @@
       <c r="O322" s="1"/>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B323" s="10" t="s">
-        <v>343</v>
+      <c r="B323" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>5</v>
@@ -10283,7 +10283,7 @@
       <c r="A324" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B324" s="10"/>
+      <c r="B324" s="5"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -10298,8 +10298,8 @@
       <c r="O324" s="1"/>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B325" s="10" t="s">
-        <v>344</v>
+      <c r="B325" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>1</v>
@@ -10322,8 +10322,8 @@
       <c r="O325" s="1"/>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B326" s="10" t="s">
-        <v>345</v>
+      <c r="B326" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>1</v>
@@ -10350,8 +10350,8 @@
       <c r="O326" s="1"/>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B327" s="10" t="s">
-        <v>346</v>
+      <c r="B327" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>1</v>
@@ -10374,8 +10374,8 @@
       <c r="O327" s="1"/>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B328" s="10" t="s">
-        <v>347</v>
+      <c r="B328" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>1</v>
@@ -10398,8 +10398,8 @@
       <c r="O328" s="1"/>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B329" s="10" t="s">
-        <v>348</v>
+      <c r="B329" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>1</v>
@@ -10422,8 +10422,8 @@
       <c r="O329" s="1"/>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B330" s="10" t="s">
-        <v>349</v>
+      <c r="B330" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>1</v>
@@ -10446,8 +10446,8 @@
       <c r="O330" s="1"/>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B331" s="10" t="s">
-        <v>350</v>
+      <c r="B331" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>1</v>
@@ -10470,8 +10470,8 @@
       <c r="O331" s="1"/>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B332" s="10" t="s">
-        <v>351</v>
+      <c r="B332" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>1</v>
@@ -10494,8 +10494,8 @@
       <c r="O332" s="1"/>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B333" s="10" t="s">
-        <v>352</v>
+      <c r="B333" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>1</v>
@@ -10518,8 +10518,8 @@
       <c r="O333" s="1"/>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B334" s="10" t="s">
-        <v>353</v>
+      <c r="B334" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>1</v>
@@ -10542,8 +10542,8 @@
       <c r="O334" s="1"/>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B335" s="10" t="s">
-        <v>354</v>
+      <c r="B335" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>1</v>
@@ -10566,8 +10566,8 @@
       <c r="O335" s="1"/>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B336" s="10" t="s">
-        <v>355</v>
+      <c r="B336" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1</v>
@@ -10594,8 +10594,8 @@
       <c r="O336" s="1"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B337" s="10" t="s">
-        <v>356</v>
+      <c r="B337" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1</v>
@@ -10618,8 +10618,8 @@
       <c r="O337" s="1"/>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B338" s="10" t="s">
-        <v>357</v>
+      <c r="B338" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1</v>
@@ -10646,8 +10646,8 @@
       <c r="O338" s="1"/>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B339" s="10" t="s">
-        <v>358</v>
+      <c r="B339" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1</v>
@@ -10673,7 +10673,7 @@
       <c r="A340" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B340" s="10"/>
+      <c r="B340" s="5"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -10688,8 +10688,8 @@
       <c r="O340" s="1"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B341" s="10" t="s">
-        <v>359</v>
+      <c r="B341" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1</v>
@@ -10712,8 +10712,8 @@
       <c r="O341" s="1"/>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B342" s="10" t="s">
-        <v>360</v>
+      <c r="B342" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1</v>
@@ -10736,8 +10736,8 @@
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B343" s="10" t="s">
-        <v>361</v>
+      <c r="B343" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1</v>
@@ -10760,8 +10760,8 @@
       <c r="O343" s="1"/>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B344" s="10" t="s">
-        <v>362</v>
+      <c r="B344" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1</v>
@@ -10784,8 +10784,8 @@
       <c r="O344" s="1"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B345" s="10" t="s">
-        <v>363</v>
+      <c r="B345" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1</v>
@@ -10808,8 +10808,8 @@
       <c r="O345" s="1"/>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B346" s="10" t="s">
-        <v>364</v>
+      <c r="B346" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>1</v>
@@ -10839,7 +10839,7 @@
       <c r="A347" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B347" s="10"/>
+      <c r="B347" s="5"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -10854,8 +10854,8 @@
       <c r="O347" s="1"/>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B348" s="10" t="s">
-        <v>365</v>
+      <c r="B348" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>1</v>
@@ -10881,7 +10881,7 @@
       <c r="A349" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B349" s="10"/>
+      <c r="B349" s="5"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -10896,8 +10896,8 @@
       <c r="O349" s="1"/>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B350" s="10" t="s">
-        <v>366</v>
+      <c r="B350" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>1</v>
@@ -10936,8 +10936,8 @@
       <c r="O350" s="1"/>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B351" s="10" t="s">
-        <v>367</v>
+      <c r="B351" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>1</v>
@@ -10960,8 +10960,8 @@
       <c r="O351" s="1"/>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B352" s="10" t="s">
-        <v>368</v>
+      <c r="B352" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>1</v>
@@ -10988,8 +10988,8 @@
       <c r="O352" s="1"/>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B353" s="10" t="s">
-        <v>369</v>
+      <c r="B353" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1</v>
@@ -11020,8 +11020,8 @@
       <c r="O353" s="1"/>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B354" s="10" t="s">
-        <v>370</v>
+      <c r="B354" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1</v>
@@ -11052,8 +11052,8 @@
       <c r="O354" s="1"/>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B355" s="10" t="s">
-        <v>371</v>
+      <c r="B355" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1</v>
@@ -11080,8 +11080,8 @@
       <c r="O355" s="1"/>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B356" s="10" t="s">
-        <v>372</v>
+      <c r="B356" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>1</v>
@@ -11108,8 +11108,8 @@
       <c r="O356" s="1"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B357" s="10" t="s">
-        <v>373</v>
+      <c r="B357" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>1</v>
@@ -11135,7 +11135,7 @@
       <c r="A358" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B358" s="10"/>
+      <c r="B358" s="5"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -11150,8 +11150,8 @@
       <c r="O358" s="1"/>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B359" s="10" t="s">
-        <v>374</v>
+      <c r="B359" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1</v>
@@ -11186,8 +11186,8 @@
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B360" s="10" t="s">
-        <v>375</v>
+      <c r="B360" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>1</v>
@@ -11210,8 +11210,8 @@
       <c r="O360" s="1"/>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B361" s="10" t="s">
-        <v>376</v>
+      <c r="B361" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1</v>
@@ -11234,8 +11234,8 @@
       <c r="O361" s="1"/>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B362" s="10" t="s">
-        <v>377</v>
+      <c r="B362" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>1</v>
@@ -11262,8 +11262,8 @@
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B363" s="10" t="s">
-        <v>378</v>
+      <c r="B363" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>1</v>
@@ -11286,8 +11286,8 @@
       <c r="O363" s="1"/>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B364" s="10" t="s">
-        <v>379</v>
+      <c r="B364" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1</v>
@@ -11321,7 +11321,7 @@
       <c r="A365" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B365" s="10"/>
+      <c r="B365" s="5"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -11336,8 +11336,8 @@
       <c r="O365" s="1"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B366" s="10" t="s">
-        <v>380</v>
+      <c r="B366" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>1</v>
@@ -11360,8 +11360,8 @@
       <c r="O366" s="1"/>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B367" s="10" t="s">
-        <v>381</v>
+      <c r="B367" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1</v>
@@ -11388,8 +11388,8 @@
       <c r="O367" s="1"/>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B368" s="10" t="s">
-        <v>382</v>
+      <c r="B368" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1</v>
@@ -11412,8 +11412,8 @@
       <c r="O368" s="1"/>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B369" s="10" t="s">
-        <v>383</v>
+      <c r="B369" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1</v>
@@ -11439,7 +11439,7 @@
       <c r="A370" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B370" s="10"/>
+      <c r="B370" s="5"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -11454,8 +11454,8 @@
       <c r="O370" s="1"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B371" s="10" t="s">
-        <v>384</v>
+      <c r="B371" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>5</v>
@@ -11481,7 +11481,7 @@
       <c r="A372" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B372" s="10"/>
+      <c r="B372" s="5"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -11496,8 +11496,8 @@
       <c r="O372" s="1"/>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B373" s="10" t="s">
-        <v>385</v>
+      <c r="B373" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1</v>
@@ -11520,8 +11520,8 @@
       <c r="O373" s="1"/>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B374" s="10" t="s">
-        <v>386</v>
+      <c r="B374" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1</v>
@@ -11544,8 +11544,8 @@
       <c r="O374" s="1"/>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B375" s="10" t="s">
-        <v>387</v>
+      <c r="B375" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1</v>
@@ -11568,8 +11568,8 @@
       <c r="O375" s="1"/>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B376" s="10" t="s">
-        <v>388</v>
+      <c r="B376" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1</v>
@@ -11596,8 +11596,8 @@
       <c r="O376" s="1"/>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B377" s="10" t="s">
-        <v>389</v>
+      <c r="B377" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1</v>
@@ -11620,8 +11620,8 @@
       <c r="O377" s="1"/>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B378" s="10" t="s">
-        <v>390</v>
+      <c r="B378" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1</v>
@@ -11644,8 +11644,8 @@
       <c r="O378" s="1"/>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B379" s="10" t="s">
-        <v>391</v>
+      <c r="B379" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1</v>
@@ -11676,8 +11676,8 @@
       <c r="O379" s="1"/>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B380" s="10" t="s">
-        <v>392</v>
+      <c r="B380" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1</v>
@@ -11700,8 +11700,8 @@
       <c r="O380" s="1"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B381" s="10" t="s">
-        <v>393</v>
+      <c r="B381" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1</v>
@@ -11724,8 +11724,8 @@
       <c r="O381" s="1"/>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B382" s="10" t="s">
-        <v>394</v>
+      <c r="B382" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1</v>
@@ -11759,7 +11759,7 @@
       <c r="A383" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B383" s="10"/>
+      <c r="B383" s="5"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -11774,8 +11774,8 @@
       <c r="O383" s="1"/>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B384" s="10" t="s">
-        <v>395</v>
+      <c r="B384" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>5</v>
@@ -11798,8 +11798,8 @@
       <c r="O384" s="1"/>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B385" s="10" t="s">
-        <v>396</v>
+      <c r="B385" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>5</v>
@@ -11826,8 +11826,8 @@
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B386" s="10" t="s">
-        <v>397</v>
+      <c r="B386" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>5</v>
@@ -11853,7 +11853,7 @@
       <c r="A387" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B387" s="10"/>
+      <c r="B387" s="5"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -11868,8 +11868,8 @@
       <c r="O387" s="1"/>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B388" s="10" t="s">
-        <v>398</v>
+      <c r="B388" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1</v>
@@ -11896,8 +11896,8 @@
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B389" s="10" t="s">
-        <v>399</v>
+      <c r="B389" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1</v>
@@ -11920,8 +11920,8 @@
       <c r="O389" s="1"/>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B390" s="10" t="s">
-        <v>400</v>
+      <c r="B390" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1</v>
@@ -11956,8 +11956,8 @@
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B391" s="10" t="s">
-        <v>401</v>
+      <c r="B391" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1</v>
@@ -11984,8 +11984,8 @@
       <c r="O391" s="1"/>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B392" s="10" t="s">
-        <v>402</v>
+      <c r="B392" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1</v>
@@ -12008,8 +12008,8 @@
       <c r="O392" s="1"/>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B393" s="10" t="s">
-        <v>403</v>
+      <c r="B393" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1</v>
@@ -12032,8 +12032,8 @@
       <c r="O393" s="1"/>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B394" s="10" t="s">
-        <v>404</v>
+      <c r="B394" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1</v>
@@ -12063,7 +12063,7 @@
       <c r="A395" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B395" s="10"/>
+      <c r="B395" s="5"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -12078,8 +12078,8 @@
       <c r="O395" s="1"/>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B396" s="10" t="s">
-        <v>405</v>
+      <c r="B396" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1</v>
@@ -12105,7 +12105,7 @@
       <c r="A397" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B397" s="10"/>
+      <c r="B397" s="5"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -12120,8 +12120,8 @@
       <c r="O397" s="1"/>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B398" s="10" t="s">
-        <v>406</v>
+      <c r="B398" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1</v>
@@ -12144,8 +12144,8 @@
       <c r="O398" s="1"/>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B399" s="10" t="s">
-        <v>407</v>
+      <c r="B399" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1</v>
@@ -12171,7 +12171,7 @@
       <c r="A400" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B400" s="10"/>
+      <c r="B400" s="5"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -12186,8 +12186,8 @@
       <c r="O400" s="1"/>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B401" s="10" t="s">
-        <v>408</v>
+      <c r="B401" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1</v>
@@ -12210,8 +12210,8 @@
       <c r="O401" s="1"/>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B402" s="10" t="s">
-        <v>409</v>
+      <c r="B402" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1</v>
@@ -12234,8 +12234,8 @@
       <c r="O402" s="1"/>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B403" s="10" t="s">
-        <v>410</v>
+      <c r="B403" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1</v>
@@ -12258,8 +12258,8 @@
       <c r="O403" s="1"/>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B404" s="10" t="s">
-        <v>411</v>
+      <c r="B404" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1</v>
@@ -12285,7 +12285,7 @@
       <c r="A405" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B405" s="10"/>
+      <c r="B405" s="5"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -12300,39 +12300,39 @@
       <c r="O405" s="1"/>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
-      <c r="B406" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C406" s="5" t="s">
+      <c r="A406" s="3"/>
+      <c r="B406" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
-      <c r="F406" s="9">
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="4">
         <v>6.8315908299091399</v>
       </c>
-      <c r="G406" s="9">
+      <c r="G406" s="4">
         <v>27.255113530821799</v>
       </c>
-      <c r="H406" s="9">
+      <c r="H406" s="4">
         <v>0.58096568163765205</v>
       </c>
-      <c r="I406" s="9">
+      <c r="I406" s="4">
         <v>0.25185210498329902</v>
       </c>
-      <c r="J406" s="5"/>
-      <c r="K406" s="5"/>
-      <c r="L406" s="5">
+      <c r="J406" s="3"/>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3">
         <v>214</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="3">
         <v>420</v>
       </c>
-      <c r="N406" s="5">
-        <v>1</v>
-      </c>
-      <c r="O406" s="5">
+      <c r="N406" s="3">
+        <v>1</v>
+      </c>
+      <c r="O406" s="3">
         <v>20</v>
       </c>
     </row>
@@ -12347,5 +12347,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>